--- a/pred_ohlcv/54_21/2020-01-22 AE ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-22 AE ohlcv.xlsx
@@ -3382,7 +3382,7 @@
         <v>-33895961.41459379</v>
       </c>
       <c r="H115">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-33892911.60999379</v>
       </c>
       <c r="H116">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-33901773.52709379</v>
       </c>
       <c r="H120">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-33901888.43829379</v>
       </c>
       <c r="H122">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-33903806.43799379</v>
       </c>
       <c r="H123">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-33902386.43799379</v>
       </c>
       <c r="H124">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-33897317.5248938</v>
       </c>
       <c r="H125">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-33897936.3916938</v>
       </c>
       <c r="H126">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-33894886.5870938</v>
       </c>
       <c r="H127">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-33894886.5870938</v>
       </c>
       <c r="H128">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-33895714.75925867</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-33908722.07235866</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>-33930368.64935865</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>-33734667.24363096</v>
       </c>
       <c r="H207">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>-33840743.90223096</v>
       </c>
       <c r="H208">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>-33856598.99556097</v>
       </c>
       <c r="H209">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>-33883929.86052354</v>
       </c>
       <c r="H210">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>-33883929.86052354</v>
       </c>
       <c r="H211">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>-33895983.75308236</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>-33882041.53998236</v>
       </c>
       <c r="H213">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>-33881760.29768237</v>
       </c>
       <c r="H214">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>-33882740.31438237</v>
       </c>
       <c r="H215">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>-33887482.41708237</v>
       </c>
       <c r="H216">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>-33886715.68168237</v>
       </c>
       <c r="H217">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>-33858407.06318237</v>
       </c>
       <c r="H218">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>-33811374.82105976</v>
       </c>
       <c r="H219">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>-33772391.22048237</v>
       </c>
       <c r="H220">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>-33866747.88060277</v>
       </c>
       <c r="H221">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>-33568657.00728555</v>
       </c>
       <c r="H228">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>-33613061.31488555</v>
       </c>
       <c r="H229">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>-33659886.62428555</v>
       </c>
       <c r="H230">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>-33637975.41147603</v>
       </c>
       <c r="H231">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>-33637975.41147603</v>
       </c>
       <c r="H232">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>-33637975.41147603</v>
       </c>
       <c r="H233">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>-33634543.99577603</v>
       </c>
       <c r="H234">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>-33634543.99577603</v>
       </c>
       <c r="H235">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>-33665970.71417603</v>
       </c>
       <c r="H236">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>-33641605.55127603</v>
       </c>
       <c r="H237">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>-33710131.62877603</v>
       </c>
       <c r="H238">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>-33721464.43067603</v>
       </c>
       <c r="H239">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>-33706826.35627603</v>
       </c>
       <c r="H240">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>-33706826.35627603</v>
       </c>
       <c r="H241">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>-33673683.07277282</v>
       </c>
       <c r="H242">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>-33673683.07277282</v>
       </c>
       <c r="H243">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>-33647007.44607282</v>
       </c>
       <c r="H245">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>-33681187.44113726</v>
       </c>
       <c r="H246">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>-33667024.59703726</v>
       </c>
       <c r="H247">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>-33654174.18280171</v>
       </c>
       <c r="H248">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>-33716391.64265687</v>
       </c>
       <c r="H249">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>-33716391.64265687</v>
       </c>
       <c r="H250">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>-33663412.02566214</v>
       </c>
       <c r="H251">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>-33680669.34216214</v>
       </c>
       <c r="H252">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>-33708427.696896</v>
       </c>
       <c r="H253">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>-33677555.941296</v>
       </c>
       <c r="H254">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>-33677555.941296</v>
       </c>
       <c r="H255">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>-33699633.29799601</v>
       </c>
       <c r="H256">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>-33713056.13459601</v>
       </c>
       <c r="H257">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>-33737073.42599601</v>
       </c>
       <c r="H258">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>-33706416.968596</v>
       </c>
       <c r="H259">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>-33791424.49937187</v>
       </c>
       <c r="H260">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>-33809968.13483083</v>
       </c>
       <c r="H261">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>-33793654.83177528</v>
       </c>
       <c r="H262">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>-33797239.58247527</v>
       </c>
       <c r="H263">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>-33794755.35742982</v>
       </c>
       <c r="H264">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>-33812101.04442982</v>
       </c>
       <c r="H265">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>-33877581.47542982</v>
       </c>
       <c r="H266">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>-33877581.47542982</v>
       </c>
       <c r="H267">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>-34122111.64173365</v>
       </c>
       <c r="H307">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="308" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-22 AE ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-22 AE ohlcv.xlsx
@@ -3668,7 +3668,7 @@
         <v>-33897936.3916938</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-33894886.5870938</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-33894886.5870938</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-33895231.0275938</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-33895315.0466938</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>-33930368.64935865</v>
       </c>
       <c r="H168">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>-33734667.24363096</v>
       </c>
       <c r="H207">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>-33840743.90223096</v>
       </c>
       <c r="H208">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>-33856598.99556097</v>
       </c>
       <c r="H209">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>-33883929.86052354</v>
       </c>
       <c r="H210">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>-33883929.86052354</v>
       </c>
       <c r="H211">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>-33895983.75308236</v>
       </c>
       <c r="H212">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>-33882041.53998236</v>
       </c>
       <c r="H213">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>-33881760.29768237</v>
       </c>
       <c r="H214">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>-33882740.31438237</v>
       </c>
       <c r="H215">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>-33887482.41708237</v>
       </c>
       <c r="H216">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>-33886715.68168237</v>
       </c>
       <c r="H217">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>-33858407.06318237</v>
       </c>
       <c r="H218">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>-33811374.82105976</v>
       </c>
       <c r="H219">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>-33772391.22048237</v>
       </c>
       <c r="H220">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>-33866747.88060277</v>
       </c>
       <c r="H221">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>-33595352.38490158</v>
       </c>
       <c r="H225">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>-33595352.38490158</v>
       </c>
       <c r="H226">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>-33529179.80271144</v>
       </c>
       <c r="H227">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>-33568657.00728555</v>
       </c>
       <c r="H228">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>-33613061.31488555</v>
       </c>
       <c r="H229">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>-33659886.62428555</v>
       </c>
       <c r="H230">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>-33634543.99577603</v>
       </c>
       <c r="H234">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>-33634543.99577603</v>
       </c>
       <c r="H235">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>-33665970.71417603</v>
       </c>
       <c r="H236">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>-33641605.55127603</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>-34122111.64173365</v>
       </c>
       <c r="H307">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308" spans="1:8">
